--- a/Content/Data/CardData.xlsx
+++ b/Content/Data/CardData.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\student1\Documents\Unreal Projects\ShadowBeyond\Content\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87F33150-D71B-4733-8DED-415EE7F43B86}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B860762-29A5-42EA-9C52-8768380783DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-225" yWindow="-16320" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,100 +29,128 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="24">
-  <si>
-    <t>ID</t>
-    <phoneticPr fontId="1"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="34">
+  <si>
+    <t>Dragon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Neutral</t>
+  </si>
+  <si>
+    <t>Neutral</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴブリン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴリアテ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Follower</t>
+  </si>
+  <si>
+    <t>Follower</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spell</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Amulet</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Class</t>
+  </si>
+  <si>
+    <t>Rarity</t>
   </si>
   <si>
     <t>Name</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Class</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Cost</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Type</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Attack</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Health</t>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Text</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Elf</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Royal</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Witch</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Dragon</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nightmare</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Bishop</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Nemesis</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Neutral</t>
-  </si>
-  <si>
-    <t>Neutral</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴブリン</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ファイター</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴリアテ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Follower</t>
-  </si>
-  <si>
-    <t>Follower</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Spell</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>Amulet</t>
-    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>IllustName</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+  </si>
+  <si>
+    <t>Bronze</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Silver</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Legend</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Forest</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Sword</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Rune</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abyss</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Haven</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Portal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>RowName</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-N-001</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1-N-002</t>
+  </si>
+  <si>
+    <t>1-N-003</t>
   </si>
 </sst>
 </file>
@@ -472,125 +500,144 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H27"/>
+  <dimension ref="A1:J27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M19" sqref="M19"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
+    <col min="1" max="1" width="10.25" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="7.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="8.75" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="7.125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="7" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:10">
       <c r="A1" s="2" t="s">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>1</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G2" s="1">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1">
         <v>2</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="I2" s="1"/>
+      <c r="J2" s="1"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="2" t="s">
+      <c r="C3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="2" t="s">
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D2" s="1">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="1">
-        <v>1</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2</v>
-      </c>
-      <c r="H2" s="1"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="1">
-        <v>2</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3" s="1">
-        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>2</v>
       </c>
-      <c r="H3" s="1"/>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="s">
+        <v>33</v>
+      </c>
       <c r="B4" s="1" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1">
         <v>4</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4" s="1">
+      <c r="F4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G4" s="1">
         <v>3</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <v>4</v>
       </c>
-      <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1">
-        <v>3</v>
-      </c>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
@@ -598,11 +645,11 @@
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1">
-        <v>4</v>
-      </c>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
@@ -610,11 +657,11 @@
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1">
-        <v>5</v>
-      </c>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -622,11 +669,11 @@
       <c r="F7" s="1"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1">
-        <v>6</v>
-      </c>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -634,11 +681,11 @@
       <c r="F8" s="1"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1">
-        <v>7</v>
-      </c>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -646,11 +693,11 @@
       <c r="F9" s="1"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1">
-        <v>8</v>
-      </c>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1"/>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
@@ -658,11 +705,11 @@
       <c r="F10" s="1"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1">
-        <v>9</v>
-      </c>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
@@ -670,11 +717,11 @@
       <c r="F11" s="1"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1">
-        <v>10</v>
-      </c>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -682,11 +729,11 @@
       <c r="F12" s="1"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" s="1">
-        <v>11</v>
-      </c>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -694,11 +741,11 @@
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" s="1">
-        <v>12</v>
-      </c>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1"/>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
@@ -706,11 +753,11 @@
       <c r="F14" s="1"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" s="1">
-        <v>13</v>
-      </c>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1"/>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
@@ -718,11 +765,11 @@
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" s="1">
-        <v>14</v>
-      </c>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
@@ -730,11 +777,11 @@
       <c r="F16" s="1"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" s="1">
-        <v>15</v>
-      </c>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1"/>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
@@ -742,11 +789,11 @@
       <c r="F17" s="1"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="1:8">
-      <c r="A18" s="1">
-        <v>16</v>
-      </c>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1"/>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
@@ -754,11 +801,11 @@
       <c r="F18" s="1"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="1:8">
-      <c r="A19" s="1">
-        <v>17</v>
-      </c>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1"/>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
@@ -766,11 +813,11 @@
       <c r="F19" s="1"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="1:8">
-      <c r="A20" s="1">
-        <v>18</v>
-      </c>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
@@ -778,11 +825,11 @@
       <c r="F20" s="1"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="1:8">
-      <c r="A21" s="1">
-        <v>19</v>
-      </c>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1"/>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
@@ -790,11 +837,11 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="1:8">
-      <c r="A22" s="1">
-        <v>20</v>
-      </c>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1"/>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
@@ -802,11 +849,11 @@
       <c r="F22" s="1"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1">
-        <v>21</v>
-      </c>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1"/>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -814,11 +861,11 @@
       <c r="F23" s="1"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1">
-        <v>22</v>
-      </c>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -826,11 +873,11 @@
       <c r="F24" s="1"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>23</v>
-      </c>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1"/>
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -838,11 +885,11 @@
       <c r="F25" s="1"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>24</v>
-      </c>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1"/>
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -850,11 +897,11 @@
       <c r="F26" s="1"/>
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>25</v>
-      </c>
+      <c r="I26" s="1"/>
+      <c r="J26" s="1"/>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1"/>
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -862,6 +909,8 @@
       <c r="F27" s="1"/>
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="J27" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -869,7 +918,7 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{DA0901A2-180C-4E7D-95DA-66E7088258C6}">
           <x14:formula1>
             <xm:f>Select!$A:$A</xm:f>
@@ -880,7 +929,13 @@
           <x14:formula1>
             <xm:f>Select!$B:$B</xm:f>
           </x14:formula1>
-          <xm:sqref>E1:E1048576</xm:sqref>
+          <xm:sqref>E5:E1048576 F2:F4</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6D25B85E-3F98-4AD2-9F6A-938890AC8B6D}">
+          <x14:formula1>
+            <xm:f>Select!$C:$C</xm:f>
+          </x14:formula1>
+          <xm:sqref>C2:C1048576</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -890,10 +945,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12953D30-CE33-4EF2-BD8B-9EB747A2658E}">
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -901,57 +956,70 @@
     <col min="1" max="1" width="10.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" t="s">
-        <v>16</v>
+        <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="3" spans="1:3">
+      <c r="A3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>